--- a/BD/Diccionario De Datos.xlsx
+++ b/BD/Diccionario De Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escuela\FCFM_8\BDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\XAMP\htdocs\BDM\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2ED9DE-0D05-45A8-9C39-77B3A3D50C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D637F-AD4D-418C-B09B-66422DB8214E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7F84048-713E-43BB-B1D7-8CF6FF2C842E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="137">
   <si>
     <t>activa</t>
   </si>
@@ -278,15 +278,6 @@
     <t>Obligatorio</t>
   </si>
   <si>
-    <t>Campo que determina si una notica esta activa o no</t>
-  </si>
-  <si>
-    <t>Campo que determina si una seccion esta activa o no</t>
-  </si>
-  <si>
-    <t>Campo que determina si un usuario esta activo o no</t>
-  </si>
-  <si>
     <t>Apellido materno del Usuario</t>
   </si>
   <si>
@@ -444,6 +435,15 @@
   </si>
   <si>
     <t>Llave foranea que liga los Videos en la tabla NoticiaVideo</t>
+  </si>
+  <si>
+    <t>Campo que determina si una Noticia esta activa o no</t>
+  </si>
+  <si>
+    <t>Campo que determina si una Seccion esta activa o no</t>
+  </si>
+  <si>
+    <t>Campo que determina si un Usuario esta activo o no</t>
   </si>
 </sst>
 </file>
@@ -519,6 +519,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -555,9 +558,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -575,8 +575,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EEC18EB7-1A1D-4581-B016-D67DA497F20C}" name="Tabla3" displayName="Tabla3" ref="A1:H54" totalsRowShown="0">
   <autoFilter ref="A1:H54" xr:uid="{8F136369-AF7E-45F9-810C-73CA453AC2A2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00CD28A2-0713-4FBD-900D-6BF6F7E42AC0}" name="Nombre" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{15555ABC-ECCF-490A-8BC9-E13E88FBAF5D}" name="Tabla" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00CD28A2-0713-4FBD-900D-6BF6F7E42AC0}" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{15555ABC-ECCF-490A-8BC9-E13E88FBAF5D}" name="Tabla" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{247BEC9E-8A16-49BC-8533-3FBB7A744A5E}" name="Tipo de Dato"/>
     <tableColumn id="5" xr3:uid="{D5DA30C1-8F16-419C-BFA0-FA494497D431}" name="Default"/>
     <tableColumn id="6" xr3:uid="{982542C2-DF84-49D2-A026-13D062249158}" name="Llave"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:D60"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,18 +1049,16 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,18 +1071,16 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1106,7 +1102,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,7 +1142,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,14 +1157,14 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1190,7 +1186,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,7 +1208,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1234,7 +1230,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,7 +1250,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,18 +1263,16 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,7 +1294,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1322,7 +1316,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1344,7 +1338,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,7 +1360,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,7 +1375,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
@@ -1390,7 +1384,7 @@
         <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1405,7 +1399,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2</v>
@@ -1414,7 +1408,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,7 +1423,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2</v>
@@ -1438,7 +1432,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,7 +1447,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
@@ -1462,7 +1456,7 @@
         <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,7 +1471,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>2</v>
@@ -1486,7 +1480,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1501,7 +1495,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>2</v>
@@ -1510,7 +1504,7 @@
         <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1525,7 +1519,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2</v>
@@ -1534,7 +1528,7 @@
         <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,7 +1543,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2</v>
@@ -1558,7 +1552,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1573,7 +1567,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -1582,7 +1576,7 @@
         <v>69</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1597,7 +1591,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>2</v>
@@ -1606,7 +1600,7 @@
         <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,7 +1615,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>2</v>
@@ -1630,7 +1624,7 @@
         <v>69</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,7 +1639,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>2</v>
@@ -1654,7 +1648,7 @@
         <v>69</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1676,7 +1670,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,14 +1687,14 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1722,7 +1716,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1744,7 +1738,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,18 +1751,16 @@
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,18 +1773,16 @@
       <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1805,18 +1795,16 @@
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,18 +1817,16 @@
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,7 +1848,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,18 +1861,16 @@
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1906,7 +1890,7 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1919,18 +1903,16 @@
       <c r="C45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1950,7 +1932,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1972,7 +1954,7 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,7 +1976,7 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2016,7 +1998,7 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,18 +2011,16 @@
       <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2060,7 +2040,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,18 +2053,16 @@
       <c r="C52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,18 +2075,16 @@
       <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2121,18 +2097,16 @@
       <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
